--- a/scripts/cv_summary.xlsx
+++ b/scripts/cv_summary.xlsx
@@ -475,10 +475,10 @@
         <v>0.7229095049951682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7669075775359359</v>
+        <v>0.7494414738778556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7536617160907814</v>
+        <v>0.7579929485384906</v>
       </c>
       <c r="E2" t="n">
         <v>0.7159277989562968</v>
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.468320342128087</v>
+        <v>1.462436867819821</v>
       </c>
       <c r="C3" t="n">
-        <v>1.557174168527126</v>
+        <v>1.519058125359671</v>
       </c>
       <c r="D3" t="n">
-        <v>1.560409627854824</v>
+        <v>1.556749834546021</v>
       </c>
       <c r="E3" t="n">
-        <v>1.551340737242363</v>
+        <v>1.54660980469876</v>
       </c>
       <c r="F3" t="n">
         <v>1.678571428571429</v>
@@ -519,10 +519,10 @@
         <v>0.4310206088195478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4863495449535549</v>
+        <v>0.4760889397667987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5069219073546785</v>
+        <v>0.5041282991213458</v>
       </c>
       <c r="E4" t="n">
         <v>0.6908072276214451</v>
@@ -541,10 +541,10 @@
         <v>0.5731396297303659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5550801679886977</v>
+        <v>0.5623099176362822</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6017253291460553</v>
+        <v>0.6132433316171436</v>
       </c>
       <c r="E5" t="n">
         <v>0.6182041702923901</v>
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.128656767117802</v>
+        <v>4.129015776173263</v>
       </c>
       <c r="C6" t="n">
-        <v>4.070326085601534</v>
+        <v>3.957873774426324</v>
       </c>
       <c r="D6" t="n">
-        <v>3.973080677645547</v>
+        <v>3.944835330758776</v>
       </c>
       <c r="E6" t="n">
-        <v>4.015496684585115</v>
+        <v>4.015600622904436</v>
       </c>
       <c r="F6" t="n">
         <v>5.0625</v>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.565525001650441</v>
+        <v>2.570286086142769</v>
       </c>
       <c r="C7" t="n">
-        <v>2.577310008662087</v>
+        <v>2.527731386678559</v>
       </c>
       <c r="D7" t="n">
-        <v>2.524258075015886</v>
+        <v>2.525768639785903</v>
       </c>
       <c r="E7" t="n">
-        <v>2.529741523004946</v>
+        <v>2.528405044208385</v>
       </c>
       <c r="F7" t="n">
         <v>3.767857142857143</v>
@@ -607,10 +607,10 @@
         <v>1.400072362041889</v>
       </c>
       <c r="C8" t="n">
-        <v>1.403528964945248</v>
+        <v>1.362382700400693</v>
       </c>
       <c r="D8" t="n">
-        <v>1.379112711974553</v>
+        <v>1.381108924746513</v>
       </c>
       <c r="E8" t="n">
         <v>1.392282953830914</v>
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.070340098697437</v>
+        <v>4.069720386992278</v>
       </c>
       <c r="C9" t="n">
-        <v>3.770581364631653</v>
+        <v>3.729628614016941</v>
       </c>
       <c r="D9" t="n">
-        <v>3.935403598206384</v>
+        <v>3.923663765192031</v>
       </c>
       <c r="E9" t="n">
-        <v>3.742954704651433</v>
+        <v>3.742929823913529</v>
       </c>
       <c r="F9" t="n">
         <v>5.089285714285714</v>
@@ -648,16 +648,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.783681418716968</v>
+        <v>3.774419737729656</v>
       </c>
       <c r="C10" t="n">
-        <v>3.956640068973814</v>
+        <v>3.878161809274128</v>
       </c>
       <c r="D10" t="n">
-        <v>4.043864948408944</v>
+        <v>4.048913666180201</v>
       </c>
       <c r="E10" t="n">
-        <v>4.024660291361906</v>
+        <v>4.024190674546586</v>
       </c>
       <c r="F10" t="n">
         <v>4.589285714285714</v>
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.918497806805572</v>
+        <v>1.891771578443211</v>
       </c>
       <c r="C11" t="n">
-        <v>1.876964100769588</v>
+        <v>1.87132057760443</v>
       </c>
       <c r="D11" t="n">
-        <v>1.929332967315401</v>
+        <v>1.932556031005723</v>
       </c>
       <c r="E11" t="n">
-        <v>1.924914025029661</v>
+        <v>1.909641668909111</v>
       </c>
       <c r="F11" t="n">
         <v>2.741071428571428</v>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.44211047178971</v>
+        <v>14.37090220089164</v>
       </c>
       <c r="C12" t="n">
-        <v>13.65047206197466</v>
+        <v>13.32566230637686</v>
       </c>
       <c r="D12" t="n">
-        <v>11.77421307563782</v>
+        <v>11.76079046726227</v>
       </c>
       <c r="E12" t="n">
-        <v>11.57337875022077</v>
+        <v>11.57380326231813</v>
       </c>
       <c r="F12" t="n">
         <v>17.20535714285714</v>
@@ -717,10 +717,10 @@
         <v>2.054324268694601</v>
       </c>
       <c r="C13" t="n">
-        <v>2.133453635232789</v>
+        <v>2.014997177890369</v>
       </c>
       <c r="D13" t="n">
-        <v>2.062568888068199</v>
+        <v>2.071968544806753</v>
       </c>
       <c r="E13" t="n">
         <v>2.077005698734093</v>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.298112490164582</v>
+        <v>2.269395458759964</v>
       </c>
       <c r="C14" t="n">
-        <v>2.301225985799517</v>
+        <v>2.231398267405373</v>
       </c>
       <c r="D14" t="n">
-        <v>2.356478180204119</v>
+        <v>2.357122408492225</v>
       </c>
       <c r="E14" t="n">
-        <v>2.325383527834302</v>
+        <v>2.325378942663177</v>
       </c>
       <c r="F14" t="n">
         <v>3.446428571428572</v>
@@ -761,10 +761,10 @@
         <v>2.070251707217683</v>
       </c>
       <c r="C15" t="n">
-        <v>2.344755627214909</v>
+        <v>2.248170999544008</v>
       </c>
       <c r="D15" t="n">
-        <v>2.201446824840137</v>
+        <v>2.200038071189608</v>
       </c>
       <c r="E15" t="n">
         <v>2.207580446008436</v>
@@ -783,10 +783,10 @@
         <v>2.196039221732648</v>
       </c>
       <c r="C16" t="n">
-        <v>2.188069939613342</v>
+        <v>2.127793601581029</v>
       </c>
       <c r="D16" t="n">
-        <v>2.233864547950881</v>
+        <v>2.235015038933073</v>
       </c>
       <c r="E16" t="n">
         <v>2.226551426646636</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.273770974995369</v>
+        <v>3.229845144019216</v>
       </c>
       <c r="C17" t="n">
-        <v>3.525540181568691</v>
+        <v>3.533519353185381</v>
       </c>
       <c r="D17" t="n">
-        <v>3.610808415072305</v>
+        <v>3.618200293609074</v>
       </c>
       <c r="E17" t="n">
-        <v>3.528194004987304</v>
+        <v>3.530101139729459</v>
       </c>
       <c r="F17" t="n">
         <v>4.848214285714286</v>
@@ -827,10 +827,10 @@
         <v>1.990183089508321</v>
       </c>
       <c r="C18" t="n">
-        <v>2.017221167683601</v>
+        <v>2.01133405310767</v>
       </c>
       <c r="D18" t="n">
-        <v>2.077358060649463</v>
+        <v>2.076217747160367</v>
       </c>
       <c r="E18" t="n">
         <v>2.053018572720588</v>
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.980276859072683</v>
+        <v>7.779937901725122</v>
       </c>
       <c r="C19" t="n">
-        <v>7.514463441712516</v>
+        <v>7.468129720006671</v>
       </c>
       <c r="D19" t="n">
-        <v>7.310123682022095</v>
+        <v>7.379319327218192</v>
       </c>
       <c r="E19" t="n">
-        <v>6.984502887589739</v>
+        <v>6.985527476480493</v>
       </c>
       <c r="F19" t="n">
         <v>8.294642857142858</v>
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.526498424327</v>
+        <v>7.244631983689793</v>
       </c>
       <c r="C20" t="n">
-        <v>7.003930296216692</v>
+        <v>6.775440352303642</v>
       </c>
       <c r="D20" t="n">
-        <v>6.527129539421627</v>
+        <v>6.528445073536465</v>
       </c>
       <c r="E20" t="n">
-        <v>6.145585748915787</v>
+        <v>6.145390668264666</v>
       </c>
       <c r="F20" t="n">
         <v>7.785714285714286</v>
@@ -893,10 +893,10 @@
         <v>2.172005326624174</v>
       </c>
       <c r="C21" t="n">
-        <v>2.197239418114935</v>
+        <v>2.125744025622095</v>
       </c>
       <c r="D21" t="n">
-        <v>2.264815866947174</v>
+        <v>2.261902613299234</v>
       </c>
       <c r="E21" t="n">
         <v>2.241303982547647</v>
@@ -915,10 +915,10 @@
         <v>1.857287159278472</v>
       </c>
       <c r="C22" t="n">
-        <v>2.177617498806545</v>
+        <v>2.136182297553335</v>
       </c>
       <c r="D22" t="n">
-        <v>2.131017759442329</v>
+        <v>2.129343643784523</v>
       </c>
       <c r="E22" t="n">
         <v>2.124069727057595</v>
@@ -937,10 +937,10 @@
         <v>0.6153853000885412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5954427610018423</v>
+        <v>0.5929007610040051</v>
       </c>
       <c r="D23" t="n">
-        <v>0.619905987488372</v>
+        <v>0.6450399969305312</v>
       </c>
       <c r="E23" t="n">
         <v>0.6895885430291951</v>
@@ -956,16 +956,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.400069610366081</v>
+        <v>5.385849603667674</v>
       </c>
       <c r="C24" t="n">
-        <v>5.536023114408765</v>
+        <v>5.346841139452798</v>
       </c>
       <c r="D24" t="n">
-        <v>5.481004706450872</v>
+        <v>5.478138574532101</v>
       </c>
       <c r="E24" t="n">
-        <v>5.648532604099983</v>
+        <v>5.648507175057924</v>
       </c>
       <c r="F24" t="n">
         <v>5.767857142857143</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.171137390410215</v>
+        <v>7.253717674370915</v>
       </c>
       <c r="C25" t="n">
-        <v>6.656081267765591</v>
+        <v>6.454876167433602</v>
       </c>
       <c r="D25" t="n">
-        <v>7.316338232585362</v>
+        <v>7.305262242044723</v>
       </c>
       <c r="E25" t="n">
-        <v>7.051381831865513</v>
+        <v>7.282565447711432</v>
       </c>
       <c r="F25" t="n">
         <v>8.830357142857142</v>
@@ -1003,10 +1003,10 @@
         <v>1.488027724298163</v>
       </c>
       <c r="C26" t="n">
-        <v>1.456060728324311</v>
+        <v>1.446267471249614</v>
       </c>
       <c r="D26" t="n">
-        <v>1.480696704770837</v>
+        <v>1.481402964464256</v>
       </c>
       <c r="E26" t="n">
         <v>1.507889463539183</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.449138593540198</v>
+        <v>5.451778575561049</v>
       </c>
       <c r="C27" t="n">
-        <v>5.186713950974601</v>
+        <v>5.240238717624119</v>
       </c>
       <c r="D27" t="n">
-        <v>5.434155923979623</v>
+        <v>5.40628182036536</v>
       </c>
       <c r="E27" t="n">
-        <v>5.533265358145487</v>
+        <v>5.533091004696867</v>
       </c>
       <c r="F27" t="n">
         <v>7.080357142857143</v>
@@ -1047,10 +1047,10 @@
         <v>1.132700454885396</v>
       </c>
       <c r="C28" t="n">
-        <v>1.195464931428432</v>
+        <v>1.167233549590622</v>
       </c>
       <c r="D28" t="n">
-        <v>1.178343346076352</v>
+        <v>1.18622041706528</v>
       </c>
       <c r="E28" t="n">
         <v>1.133845750375531</v>
